--- a/demo.xlsx
+++ b/demo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergiobruni\Desktop\OSPITI\ettore\demografia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altro\progetti\universita_ettore\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="600" windowWidth="19815" windowHeight="9915" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="7965" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -24,13 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="67">
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>Madagascar</t>
   </si>
   <si>
     <t>TOTAL POPULATION</t>
@@ -224,6 +218,12 @@
   <si>
     <t>RELATIVI F 2050</t>
   </si>
+  <si>
+    <t>STRUTTURA PER ETA' POPOLAZIONE MADACASCAR 1950-2050</t>
+  </si>
+  <si>
+    <t>TRANSIZIONE DEMOGRAFICA MADACASCAR 1950-2050</t>
+  </si>
 </sst>
 </file>
 
@@ -232,9 +232,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="###\ ###\ ###\ ###\ ##0"/>
     <numFmt numFmtId="165" formatCode="0.000000000"/>
-    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -295,8 +295,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,6 +371,11 @@
         <fgColor theme="7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -383,7 +401,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="0">
       <alignment horizontal="left" wrapText="1"/>
@@ -408,8 +426,9 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -430,24 +449,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -457,11 +458,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -477,12 +475,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="9" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyProtection="1"/>
@@ -493,13 +485,43 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1"/>
     <xf numFmtId="165" fontId="8" fillId="9" borderId="0" xfId="9" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="10" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="8" fillId="10" borderId="0" xfId="10" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="8" fillId="10" borderId="0" xfId="10" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="8" fillId="11" borderId="0" xfId="11" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="12" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="12"/>
+    <xf numFmtId="165" fontId="8" fillId="12" borderId="0" xfId="12" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="Colore 1" xfId="8" builtinId="29"/>
     <cellStyle name="Colore 2" xfId="9" builtinId="33"/>
     <cellStyle name="Colore 3" xfId="10" builtinId="37"/>
     <cellStyle name="Colore 4" xfId="11" builtinId="41"/>
+    <cellStyle name="Colore 6" xfId="12" builtinId="49"/>
     <cellStyle name="Normal 2" xfId="7"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Style 1" xfId="1"/>
@@ -991,7 +1013,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.673486331923068E-2"/>
+          <c:y val="4.2512064357848725E-2"/>
+          <c:w val="0.6161573054797439"/>
+          <c:h val="0.86066998039636944"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -1015,7 +1047,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00B050"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -1025,7 +1057,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
@@ -1205,6 +1237,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1405,7 +1442,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72015107088867014"/>
+          <c:y val="0.16913946785336237"/>
+          <c:w val="0.26374247942940049"/>
+          <c:h val="0.25537199337683009"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1467,7 +1513,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00B050"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -1634,6 +1680,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1837,7 +1888,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2857262508333905E-2"/>
+          <c:y val="0.24891707047432085"/>
+          <c:w val="0.25870088703426369"/>
+          <c:h val="0.25584601845248878"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1852,6 +1912,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1902,7 +1963,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2075,7 +2136,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="7030A0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2366,10 +2427,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73841622922134731"/>
-          <c:y val="0.41724482356372122"/>
+          <c:x val="0.73841630683261361"/>
+          <c:y val="0.36022724133167566"/>
           <c:w val="0.25927865266841638"/>
-          <c:h val="0.15219962088072325"/>
+          <c:h val="0.22237498273242159"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4848,7 +4909,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5293,7 +5353,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5725,7 +5784,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5758,7 +5816,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5821,7 +5878,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6372,7 +6429,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7230,7 +7286,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7312,7 +7367,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8180,7 +8234,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8744,7 +8797,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00B050"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -8914,6 +8967,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -9114,7 +9172,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.1203934946562236E-2"/>
+          <c:y val="0.1975028822331788"/>
+          <c:w val="0.31423380483260183"/>
+          <c:h val="0.35892952633257286"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9126,6 +9193,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -12553,16 +12621,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>179293</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>11204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>773205</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>425825</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12583,16 +12651,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>179296</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>78443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12655,16 +12723,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>150594</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7718</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>376953</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12687,16 +12755,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>136252</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>593452</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12719,16 +12787,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>137259</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3909</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>371238</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12751,16 +12819,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12783,10 +12851,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1504949" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -12796,7 +12864,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9515475" y="1123950"/>
+          <a:off x="7677150" y="695325"/>
           <a:ext cx="1504949" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12826,17 +12894,198 @@
         <a:p>
           <a:r>
             <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>TITOLO DEL GRAFICO</a:t>
+            <a:t>POPOLAZIONE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> 1950</a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CasellaDiTesto 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781925" y="4143375"/>
+          <a:ext cx="1200150" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>POPOLAZIONE 1950 IN VALORI RELATIVI</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.03432</cdr:x>
+      <cdr:y>0.09333</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.33108</cdr:x>
+      <cdr:y>0.27667</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CasellaDiTesto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="154206" y="266700"/>
+          <a:ext cx="1333500" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.04258</cdr:x>
+      <cdr:y>0.07165</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.3336</cdr:x>
+      <cdr:y>0.28349</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CasellaDiTesto 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="192306" y="219075"/>
+          <a:ext cx="1314450" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>POPOLAZIONE 2050</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02452</cdr:x>
+      <cdr:y>0.10425</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.38003</cdr:x>
+      <cdr:y>0.38136</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CasellaDiTesto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="110391" y="300990"/>
+          <a:ext cx="1600200" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>POPOLAZIONE 2050  VALORI RELATIVI</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13194,8 +13443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:E100"/>
+    <sheetView topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R58" sqref="R58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13212,9 +13461,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -13240,18 +13487,16 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="2:26" ht="15.75" thickBot="1">
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+    <row r="2" spans="2:26">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -13269,705 +13514,711 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" spans="2:26" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="9" t="s">
+    <row r="3" spans="2:26">
+      <c r="B3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>26</v>
+      <c r="I3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>24</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26">
+      <c r="B4" s="33">
         <v>1950</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="33">
         <v>4084</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33">
+        <v>49.1</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="33">
+        <v>27.7</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26">
+      <c r="B5" s="33">
+        <v>1955</v>
+      </c>
+      <c r="C5" s="33">
+        <v>4544</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33">
+        <v>49</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="33">
+        <v>25.9</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26">
+      <c r="B6" s="33">
+        <v>1960</v>
+      </c>
+      <c r="C6" s="33">
+        <v>5099</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12">
-        <v>49.1</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33">
+        <v>48.4</v>
+      </c>
+      <c r="I6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="13">
-        <v>27.7</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B5" s="10">
-        <v>1955</v>
-      </c>
-      <c r="C5" s="10">
-        <v>4544</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="J6" s="33">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26">
+      <c r="B7" s="33">
+        <v>1965</v>
+      </c>
+      <c r="C7" s="33">
+        <v>5769</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12">
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33">
+        <v>48.1</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="33">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26">
+      <c r="B8" s="33">
+        <v>1970</v>
+      </c>
+      <c r="C8" s="33">
+        <v>6576</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33">
+        <v>47.9</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="33">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26">
+      <c r="B9" s="33">
+        <v>1975</v>
+      </c>
+      <c r="C9" s="33">
+        <v>7556</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33">
+        <v>47.2</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26">
+      <c r="B10" s="33">
+        <v>1980</v>
+      </c>
+      <c r="C10" s="33">
+        <v>8717</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33">
+        <v>45.2</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="33">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26">
+      <c r="B11" s="33">
+        <v>1985</v>
+      </c>
+      <c r="C11" s="33">
+        <v>10063</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33">
+        <v>44.4</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="33">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26">
+      <c r="B12" s="33">
+        <v>1990</v>
+      </c>
+      <c r="C12" s="33">
+        <v>11599</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33">
+        <v>44.1</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="33">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26">
+      <c r="B13" s="33">
+        <v>1995</v>
+      </c>
+      <c r="C13" s="33">
+        <v>13475</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33">
+        <v>42.8</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="33">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26">
+      <c r="B14" s="33">
+        <v>2000</v>
+      </c>
+      <c r="C14" s="33">
+        <v>15767</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33">
+        <v>39.5</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="33">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26">
+      <c r="B15" s="33">
+        <v>2005</v>
+      </c>
+      <c r="C15" s="33">
+        <v>18337</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33">
+        <v>36.5</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="33">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26">
+      <c r="B16" s="33">
+        <v>2010</v>
+      </c>
+      <c r="C16" s="33">
+        <v>21152</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33">
+        <v>34.1</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="33">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="33">
+        <v>2015</v>
+      </c>
+      <c r="C17" s="33">
+        <v>24234</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="33">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="33">
+        <v>2020</v>
+      </c>
+      <c r="C18" s="33">
+        <v>27691</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33">
+        <v>31.4</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="33">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="33">
+        <v>2025</v>
+      </c>
+      <c r="C19" s="33">
+        <v>31510</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33">
+        <v>29.7</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="33">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="33">
+        <v>2030</v>
+      </c>
+      <c r="C20" s="33">
+        <v>35622</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33">
+        <v>27.9</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="33">
+        <v>2035</v>
+      </c>
+      <c r="C21" s="33">
+        <v>39949</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33">
+        <v>26.4</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="33">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="33">
+        <v>2040</v>
+      </c>
+      <c r="C22" s="33">
+        <v>44471</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33">
+        <v>25</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="33">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="33">
+        <v>2045</v>
+      </c>
+      <c r="C23" s="33">
+        <v>49175</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33">
+        <v>23.9</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="33">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="33">
+        <v>2050</v>
+      </c>
+      <c r="C24" s="33">
+        <v>54048</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="13">
-        <v>25.9</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B6" s="10">
-        <v>1960</v>
-      </c>
-      <c r="C6" s="10">
-        <v>5099</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12">
-        <v>48.4</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="13">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B7" s="10">
-        <v>1965</v>
-      </c>
-      <c r="C7" s="10">
-        <v>5769</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12">
-        <v>48.1</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="13">
-        <v>21.7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B8" s="10">
-        <v>1970</v>
-      </c>
-      <c r="C8" s="10">
-        <v>6576</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12">
-        <v>47.9</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="13">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B9" s="10">
-        <v>1975</v>
-      </c>
-      <c r="C9" s="10">
-        <v>7556</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12">
-        <v>47.2</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B10" s="10">
-        <v>1980</v>
-      </c>
-      <c r="C10" s="10">
-        <v>8717</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
-        <v>45.2</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="13">
-        <v>16.3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B11" s="10">
-        <v>1985</v>
-      </c>
-      <c r="C11" s="10">
-        <v>10063</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12">
-        <v>44.4</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="13">
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B12" s="10">
-        <v>1990</v>
-      </c>
-      <c r="C12" s="10">
-        <v>11599</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12">
-        <v>44.1</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="13">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B13" s="10">
-        <v>1995</v>
-      </c>
-      <c r="C13" s="10">
-        <v>13475</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12">
-        <v>42.8</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="13">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B14" s="10">
-        <v>2000</v>
-      </c>
-      <c r="C14" s="10">
-        <v>15767</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12">
-        <v>39.5</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="13">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B15" s="10">
-        <v>2005</v>
-      </c>
-      <c r="C15" s="10">
-        <v>18337</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12">
-        <v>36.5</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="13">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B16" s="10">
-        <v>2010</v>
-      </c>
-      <c r="C16" s="10">
-        <v>21152</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12">
-        <v>34.1</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="13">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B17" s="10">
-        <v>2015</v>
-      </c>
-      <c r="C17" s="10">
-        <v>24234</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="13">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B18" s="10">
-        <v>2020</v>
-      </c>
-      <c r="C18" s="10">
-        <v>27691</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12">
-        <v>31.4</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="13">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B19" s="10">
-        <v>2025</v>
-      </c>
-      <c r="C19" s="10">
-        <v>31510</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12">
-        <v>29.7</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="13">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B20" s="10">
-        <v>2030</v>
-      </c>
-      <c r="C20" s="10">
-        <v>35622</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12">
-        <v>27.9</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B21" s="10">
-        <v>2035</v>
-      </c>
-      <c r="C21" s="10">
-        <v>39949</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12">
-        <v>26.4</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B22" s="10">
-        <v>2040</v>
-      </c>
-      <c r="C22" s="10">
-        <v>44471</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12">
-        <v>25</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B23" s="10">
-        <v>2045</v>
-      </c>
-      <c r="C23" s="10">
-        <v>49175</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12">
-        <v>23.9</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B24" s="10">
-        <v>2050</v>
-      </c>
-      <c r="C24" s="10">
-        <v>54048</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="15.75" thickTop="1"/>
-    <row r="27" spans="2:12">
-      <c r="B27" s="15" t="s">
+      <c r="E28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15" t="s">
+      <c r="I28" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L28" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="15" t="s">
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="15">
+      <c r="C29" s="9">
         <v>-312</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="9">
         <v>319</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="9">
         <f>+C29/3871</f>
         <v>-8.0599328338930507E-2</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="9">
         <f>+D29/3871</f>
         <v>8.2407646602944973E-2</v>
       </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="15">
+      <c r="G29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="9">
         <v>-3079</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="9">
         <v>3006</v>
       </c>
       <c r="K29">
@@ -13980,31 +14231,31 @@
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="15">
+      <c r="B30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="9">
         <v>-237</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="9">
         <v>249</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="9">
         <f t="shared" ref="E30:E49" si="0">+C30/3871</f>
         <v>-6.1224489795918366E-2</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="9">
         <f t="shared" ref="F30:F49" si="1">+D30/3871</f>
         <v>6.432446396280031E-2</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="15">
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="9">
         <v>-2909</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="9">
         <v>2848</v>
       </c>
       <c r="K30" s="7">
@@ -14017,31 +14268,31 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="15">
+      <c r="B31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="9">
         <v>-221</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="9">
         <v>223</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="9">
         <f t="shared" si="0"/>
         <v>-5.7091190906742445E-2</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="9">
         <f t="shared" si="1"/>
         <v>5.7607853267889433E-2</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31" s="15">
+      <c r="G31" s="9"/>
+      <c r="H31" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="9">
         <v>-2746</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="9">
         <v>2694</v>
       </c>
       <c r="K31" s="7">
@@ -14054,31 +14305,31 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="15">
+      <c r="B32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="9">
         <v>-193</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="9">
         <v>202</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="9">
         <f t="shared" si="0"/>
         <v>-4.985791785068458E-2</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="9">
         <f t="shared" si="1"/>
         <v>5.2182898475846035E-2</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="15">
+      <c r="G32" s="9"/>
+      <c r="H32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="9">
         <v>-2583</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="9">
         <v>2539</v>
       </c>
       <c r="K32" s="7">
@@ -14091,31 +14342,31 @@
       </c>
     </row>
     <row r="33" spans="2:15">
-      <c r="B33" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="15">
+      <c r="B33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="9">
         <v>-175</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="9">
         <v>167</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="9">
         <f t="shared" si="0"/>
         <v>-4.5207956600361664E-2</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="9">
         <f t="shared" si="1"/>
         <v>4.3141307155773703E-2</v>
       </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I33" s="15">
+      <c r="G33" s="9"/>
+      <c r="H33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="9">
         <v>-2416</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="9">
         <v>2381</v>
       </c>
       <c r="K33" s="7">
@@ -14128,31 +14379,31 @@
       </c>
     </row>
     <row r="34" spans="2:15">
-      <c r="B34" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="15">
+      <c r="B34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="9">
         <v>-148</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="9">
         <v>137</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="9">
         <f t="shared" si="0"/>
         <v>-3.8233014724877293E-2</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="9">
         <f t="shared" si="1"/>
         <v>3.5391371738568843E-2</v>
       </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I34" s="15">
+      <c r="G34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="9">
         <v>-2217</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="9">
         <v>2189</v>
       </c>
       <c r="K34" s="7">
@@ -14165,31 +14416,31 @@
       </c>
     </row>
     <row r="35" spans="2:15">
-      <c r="B35" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="15">
+      <c r="B35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="9">
         <v>-135</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="9">
         <v>105</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="9">
         <f t="shared" si="0"/>
         <v>-3.4874709377421854E-2</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="9">
         <f t="shared" si="1"/>
         <v>2.7124773960216998E-2</v>
       </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I35" s="15">
+      <c r="G35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="9">
         <v>-1991</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J35" s="9">
         <v>1970</v>
       </c>
       <c r="K35" s="7">
@@ -14202,31 +14453,31 @@
       </c>
     </row>
     <row r="36" spans="2:15">
-      <c r="B36" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="15">
+      <c r="B36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="9">
         <v>-134</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="9">
         <v>103</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="9">
         <f t="shared" si="0"/>
         <v>-3.461637819684836E-2</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="9">
         <f t="shared" si="1"/>
         <v>2.6608111599070009E-2</v>
       </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I36" s="15">
+      <c r="G36" s="9"/>
+      <c r="H36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="9">
         <v>-1762</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J36" s="9">
         <v>1748</v>
       </c>
       <c r="K36" s="7">
@@ -14242,31 +14493,31 @@
       </c>
     </row>
     <row r="37" spans="2:15">
-      <c r="B37" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="15">
+      <c r="B37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="9">
         <v>-102</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="9">
         <v>117</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="9">
         <f t="shared" si="0"/>
         <v>-2.6349780418496511E-2</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="9">
         <f t="shared" si="1"/>
         <v>3.0224748127098942E-2</v>
       </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="15">
+      <c r="G37" s="9"/>
+      <c r="H37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" s="9">
         <v>-1581</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J37" s="9">
         <v>1585</v>
       </c>
       <c r="K37" s="7">
@@ -14279,31 +14530,31 @@
       </c>
     </row>
     <row r="38" spans="2:15">
-      <c r="B38" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="15">
+      <c r="B38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="9">
         <v>-73</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="9">
         <v>99</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="9">
         <f t="shared" si="0"/>
         <v>-1.8858176181865152E-2</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="9">
         <f t="shared" si="1"/>
         <v>2.5574786876776025E-2</v>
       </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I38" s="15">
+      <c r="G38" s="9"/>
+      <c r="H38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" s="9">
         <v>-1397</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J38" s="9">
         <v>1421</v>
       </c>
       <c r="K38" s="7">
@@ -14316,31 +14567,31 @@
       </c>
     </row>
     <row r="39" spans="2:15">
-      <c r="B39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="15">
+      <c r="B39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="9">
         <v>-57</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="9">
         <v>79</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="9">
         <f t="shared" si="0"/>
         <v>-1.4724877292689228E-2</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="9">
         <f t="shared" si="1"/>
         <v>2.0408163265306121E-2</v>
       </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" s="15">
+      <c r="G39" s="9"/>
+      <c r="H39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="9">
         <v>-1202</v>
       </c>
-      <c r="J39" s="15">
+      <c r="J39" s="9">
         <v>1245</v>
       </c>
       <c r="K39" s="7">
@@ -14353,31 +14604,31 @@
       </c>
     </row>
     <row r="40" spans="2:15">
-      <c r="B40" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="15">
+      <c r="B40" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="9">
         <v>-43</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="9">
         <v>64</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="9">
         <f t="shared" si="0"/>
         <v>-1.1108240764660295E-2</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="9">
         <f t="shared" si="1"/>
         <v>1.6533195556703694E-2</v>
       </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="15">
+      <c r="G40" s="9"/>
+      <c r="H40" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="9">
         <v>-956</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J40" s="9">
         <v>1008</v>
       </c>
       <c r="K40" s="7">
@@ -14390,31 +14641,31 @@
       </c>
     </row>
     <row r="41" spans="2:15">
-      <c r="B41" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="15">
+      <c r="B41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="9">
         <v>-29</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="9">
         <v>48</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="9">
         <f t="shared" si="0"/>
         <v>-7.491604236631361E-3</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="9">
         <f t="shared" si="1"/>
         <v>1.2399896667527771E-2</v>
       </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I41" s="15">
+      <c r="G41" s="9"/>
+      <c r="H41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="9">
         <v>-737</v>
       </c>
-      <c r="J41" s="15">
+      <c r="J41" s="9">
         <v>794</v>
       </c>
       <c r="K41" s="7">
@@ -14427,31 +14678,31 @@
       </c>
     </row>
     <row r="42" spans="2:15">
-      <c r="B42" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="15">
+      <c r="B42" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="9">
         <v>-17</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="9">
         <v>34</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="9">
         <f t="shared" si="0"/>
         <v>-4.3916300697494186E-3</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="9">
         <f t="shared" si="1"/>
         <v>8.7832601394988372E-3</v>
       </c>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" s="15">
+      <c r="G42" s="9"/>
+      <c r="H42" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="9">
         <v>-558</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J42" s="9">
         <v>619</v>
       </c>
       <c r="K42" s="7">
@@ -14464,31 +14715,31 @@
       </c>
     </row>
     <row r="43" spans="2:15">
-      <c r="B43" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="15">
+      <c r="B43" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="9">
         <v>-9</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="9">
         <v>21</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="9">
         <f t="shared" si="0"/>
         <v>-2.3249806251614568E-3</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="9">
         <f t="shared" si="1"/>
         <v>5.4249547920433997E-3</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I43" s="15">
+      <c r="G43" s="9"/>
+      <c r="H43" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" s="9">
         <v>-398</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J43" s="9">
         <v>463</v>
       </c>
       <c r="K43" s="7">
@@ -14501,31 +14752,31 @@
       </c>
     </row>
     <row r="44" spans="2:15">
-      <c r="B44" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="15">
+      <c r="B44" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="9">
         <v>-3</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="9">
         <v>10</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="9">
         <f t="shared" si="0"/>
         <v>-7.7499354172048571E-4</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="9">
         <f t="shared" si="1"/>
         <v>2.5833118057349523E-3</v>
       </c>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I44" s="15">
+      <c r="G44" s="9"/>
+      <c r="H44" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" s="9">
         <v>-243</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J44" s="9">
         <v>304</v>
       </c>
       <c r="K44" s="7">
@@ -14538,31 +14789,31 @@
       </c>
     </row>
     <row r="45" spans="2:15">
-      <c r="B45" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="15">
+      <c r="B45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="9">
         <v>-1</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="9">
         <v>4</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="9">
         <f t="shared" si="0"/>
         <v>-2.5833118057349522E-4</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="9">
         <f t="shared" si="1"/>
         <v>1.0333247222939809E-3</v>
       </c>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" s="15">
+      <c r="G45" s="9"/>
+      <c r="H45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" s="9">
         <v>-124</v>
       </c>
-      <c r="J45" s="15">
+      <c r="J45" s="9">
         <v>168</v>
       </c>
       <c r="K45" s="7">
@@ -14575,31 +14826,31 @@
       </c>
     </row>
     <row r="46" spans="2:15">
-      <c r="B46" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="15">
+      <c r="B46" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="9">
         <v>0</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="9">
         <v>1</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F46" s="9">
         <f t="shared" si="1"/>
         <v>2.5833118057349522E-4</v>
       </c>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" s="15">
+      <c r="G46" s="9"/>
+      <c r="H46" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" s="9">
         <v>-49</v>
       </c>
-      <c r="J46" s="15">
+      <c r="J46" s="9">
         <v>74</v>
       </c>
       <c r="K46" s="7">
@@ -14612,31 +14863,31 @@
       </c>
     </row>
     <row r="47" spans="2:15">
-      <c r="B47" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="15">
+      <c r="B47" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="9">
         <v>0</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="9">
         <v>0</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F47" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I47" s="15">
+      <c r="G47" s="9"/>
+      <c r="H47" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="9">
         <v>-14</v>
       </c>
-      <c r="J47" s="15">
+      <c r="J47" s="9">
         <v>23</v>
       </c>
       <c r="K47" s="7">
@@ -14649,68 +14900,68 @@
       </c>
     </row>
     <row r="48" spans="2:15">
-      <c r="B48" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="15">
+      <c r="B48" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="9">
         <v>0</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="9">
         <v>0</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I48" s="15">
+      <c r="G48" s="9"/>
+      <c r="H48" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" s="9">
         <v>-2</v>
       </c>
-      <c r="J48" s="15">
+      <c r="J48" s="9">
         <v>4</v>
       </c>
-      <c r="K48" s="22">
+      <c r="K48" s="15">
         <f t="shared" si="2"/>
         <v>-3.9240307644011927E-5</v>
       </c>
-      <c r="L48" s="23">
+      <c r="L48" s="16">
         <f>4/50968</f>
         <v>7.8480615288023853E-5</v>
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="B49" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="15">
+      <c r="B49" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="9">
         <v>0</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="9">
         <v>0</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I49" s="15">
+      <c r="G49" s="9"/>
+      <c r="H49" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I49" s="9">
         <v>0</v>
       </c>
-      <c r="J49" s="15">
+      <c r="J49" s="9">
         <v>0</v>
       </c>
       <c r="K49" s="7">
@@ -14723,442 +14974,442 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="44.45" customHeight="1">
-      <c r="B50" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="15">
+      <c r="B50" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="9">
         <v>1889</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="9">
         <f>SUM(D29:D49)</f>
         <v>1982</v>
       </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15">
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9">
         <v>23885</v>
       </c>
-      <c r="J50" s="15">
+      <c r="J50" s="9">
         <v>27083</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="34.15" customHeight="1">
-      <c r="B51" s="21"/>
-      <c r="C51" s="20">
+      <c r="B51" s="44"/>
+      <c r="C51" s="43">
         <f>SUM(C50:D50)</f>
         <v>3871</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15">
+      <c r="D51" s="43"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9">
         <v>50968</v>
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="10">
+        <v>-312</v>
+      </c>
+      <c r="C58" s="10">
+        <v>319</v>
+      </c>
+      <c r="D58" s="10">
+        <v>-3079</v>
+      </c>
+      <c r="E58" s="10">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="18" t="s">
+      <c r="B59" s="10">
+        <v>-237</v>
+      </c>
+      <c r="C59" s="10">
+        <v>249</v>
+      </c>
+      <c r="D59" s="10">
+        <v>-2909</v>
+      </c>
+      <c r="E59" s="10">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="10">
+        <v>-221</v>
+      </c>
+      <c r="C60" s="10">
+        <v>223</v>
+      </c>
+      <c r="D60" s="10">
+        <v>-2746</v>
+      </c>
+      <c r="E60" s="10">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="10">
+        <v>-193</v>
+      </c>
+      <c r="C61" s="10">
+        <v>202</v>
+      </c>
+      <c r="D61" s="10">
+        <v>-2583</v>
+      </c>
+      <c r="E61" s="10">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="10">
+        <v>-175</v>
+      </c>
+      <c r="C62" s="10">
+        <v>167</v>
+      </c>
+      <c r="D62" s="10">
+        <v>-2416</v>
+      </c>
+      <c r="E62" s="10">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="10">
+        <v>-148</v>
+      </c>
+      <c r="C63" s="10">
+        <v>137</v>
+      </c>
+      <c r="D63" s="10">
+        <v>-2217</v>
+      </c>
+      <c r="E63" s="10">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="10">
+        <v>-135</v>
+      </c>
+      <c r="C64" s="10">
+        <v>105</v>
+      </c>
+      <c r="D64" s="10">
+        <v>-1991</v>
+      </c>
+      <c r="E64" s="10">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" s="10">
+        <v>-134</v>
+      </c>
+      <c r="C65" s="10">
+        <v>103</v>
+      </c>
+      <c r="D65" s="10">
+        <v>-1762</v>
+      </c>
+      <c r="E65" s="10">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="10">
+        <v>-102</v>
+      </c>
+      <c r="C66" s="10">
+        <v>117</v>
+      </c>
+      <c r="D66" s="10">
+        <v>-1581</v>
+      </c>
+      <c r="E66" s="10">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="10">
+        <v>-73</v>
+      </c>
+      <c r="C67" s="10">
+        <v>99</v>
+      </c>
+      <c r="D67" s="10">
+        <v>-1397</v>
+      </c>
+      <c r="E67" s="10">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="10">
+        <v>-57</v>
+      </c>
+      <c r="C68" s="10">
+        <v>79</v>
+      </c>
+      <c r="D68" s="10">
+        <v>-1202</v>
+      </c>
+      <c r="E68" s="10">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="10">
+        <v>-43</v>
+      </c>
+      <c r="C69" s="10">
+        <v>64</v>
+      </c>
+      <c r="D69" s="10">
+        <v>-956</v>
+      </c>
+      <c r="E69" s="10">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="10">
+        <v>-29</v>
+      </c>
+      <c r="C70" s="10">
+        <v>48</v>
+      </c>
+      <c r="D70" s="10">
+        <v>-737</v>
+      </c>
+      <c r="E70" s="10">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="10">
+        <v>-17</v>
+      </c>
+      <c r="C71" s="10">
+        <v>34</v>
+      </c>
+      <c r="D71" s="10">
+        <v>-558</v>
+      </c>
+      <c r="E71" s="10">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72" s="10">
+        <v>-9</v>
+      </c>
+      <c r="C72" s="10">
+        <v>21</v>
+      </c>
+      <c r="D72" s="10">
+        <v>-398</v>
+      </c>
+      <c r="E72" s="10">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="10">
+        <v>-3</v>
+      </c>
+      <c r="C73" s="10">
+        <v>10</v>
+      </c>
+      <c r="D73" s="10">
+        <v>-243</v>
+      </c>
+      <c r="E73" s="10">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" s="10">
+        <v>-1</v>
+      </c>
+      <c r="C74" s="10">
+        <v>4</v>
+      </c>
+      <c r="D74" s="10">
+        <v>-124</v>
+      </c>
+      <c r="E74" s="10">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" s="10">
+        <v>0</v>
+      </c>
+      <c r="C75" s="10">
+        <v>1</v>
+      </c>
+      <c r="D75" s="10">
+        <v>-49</v>
+      </c>
+      <c r="E75" s="10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="10">
+        <v>0</v>
+      </c>
+      <c r="C76" s="10">
+        <v>0</v>
+      </c>
+      <c r="D76" s="10">
+        <v>-14</v>
+      </c>
+      <c r="E76" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" s="10">
+        <v>0</v>
+      </c>
+      <c r="C77" s="10">
+        <v>0</v>
+      </c>
+      <c r="D77" s="10">
+        <v>-2</v>
+      </c>
+      <c r="E77" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="10">
+        <v>0</v>
+      </c>
+      <c r="C78" s="10">
+        <v>0</v>
+      </c>
+      <c r="D78" s="10">
+        <v>0</v>
+      </c>
+      <c r="E78" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="C79" s="12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" s="16">
-        <v>-312</v>
-      </c>
-      <c r="C58" s="16">
-        <v>319</v>
-      </c>
-      <c r="D58" s="16">
-        <v>-3079</v>
-      </c>
-      <c r="E58" s="16">
-        <v>3006</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B59" s="16">
-        <v>-237</v>
-      </c>
-      <c r="C59" s="16">
-        <v>249</v>
-      </c>
-      <c r="D59" s="16">
-        <v>-2909</v>
-      </c>
-      <c r="E59" s="16">
-        <v>2848</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60" s="16">
-        <v>-221</v>
-      </c>
-      <c r="C60" s="16">
-        <v>223</v>
-      </c>
-      <c r="D60" s="16">
-        <v>-2746</v>
-      </c>
-      <c r="E60" s="16">
-        <v>2694</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B61" s="16">
-        <v>-193</v>
-      </c>
-      <c r="C61" s="16">
-        <v>202</v>
-      </c>
-      <c r="D61" s="16">
-        <v>-2583</v>
-      </c>
-      <c r="E61" s="16">
-        <v>2539</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="16">
-        <v>-175</v>
-      </c>
-      <c r="C62" s="16">
-        <v>167</v>
-      </c>
-      <c r="D62" s="16">
-        <v>-2416</v>
-      </c>
-      <c r="E62" s="16">
-        <v>2381</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" s="16">
-        <v>-148</v>
-      </c>
-      <c r="C63" s="16">
-        <v>137</v>
-      </c>
-      <c r="D63" s="16">
-        <v>-2217</v>
-      </c>
-      <c r="E63" s="16">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" s="16">
-        <v>-135</v>
-      </c>
-      <c r="C64" s="16">
-        <v>105</v>
-      </c>
-      <c r="D64" s="16">
-        <v>-1991</v>
-      </c>
-      <c r="E64" s="16">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B65" s="16">
-        <v>-134</v>
-      </c>
-      <c r="C65" s="16">
-        <v>103</v>
-      </c>
-      <c r="D65" s="16">
-        <v>-1762</v>
-      </c>
-      <c r="E65" s="16">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B66" s="16">
-        <v>-102</v>
-      </c>
-      <c r="C66" s="16">
-        <v>117</v>
-      </c>
-      <c r="D66" s="16">
-        <v>-1581</v>
-      </c>
-      <c r="E66" s="16">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67" s="16">
-        <v>-73</v>
-      </c>
-      <c r="C67" s="16">
-        <v>99</v>
-      </c>
-      <c r="D67" s="16">
-        <v>-1397</v>
-      </c>
-      <c r="E67" s="16">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" s="16">
-        <v>-57</v>
-      </c>
-      <c r="C68" s="16">
-        <v>79</v>
-      </c>
-      <c r="D68" s="16">
-        <v>-1202</v>
-      </c>
-      <c r="E68" s="16">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B69" s="16">
-        <v>-43</v>
-      </c>
-      <c r="C69" s="16">
+      <c r="D79" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E79" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D69" s="16">
-        <v>-956</v>
-      </c>
-      <c r="E69" s="16">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B70" s="16">
-        <v>-29</v>
-      </c>
-      <c r="C70" s="16">
-        <v>48</v>
-      </c>
-      <c r="D70" s="16">
-        <v>-737</v>
-      </c>
-      <c r="E70" s="16">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B71" s="16">
-        <v>-17</v>
-      </c>
-      <c r="C71" s="16">
-        <v>34</v>
-      </c>
-      <c r="D71" s="16">
-        <v>-558</v>
-      </c>
-      <c r="E71" s="16">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B72" s="16">
-        <v>-9</v>
-      </c>
-      <c r="C72" s="16">
-        <v>21</v>
-      </c>
-      <c r="D72" s="16">
-        <v>-398</v>
-      </c>
-      <c r="E72" s="16">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B73" s="16">
-        <v>-3</v>
-      </c>
-      <c r="C73" s="16">
-        <v>10</v>
-      </c>
-      <c r="D73" s="16">
-        <v>-243</v>
-      </c>
-      <c r="E73" s="16">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B74" s="16">
-        <v>-1</v>
-      </c>
-      <c r="C74" s="16">
-        <v>4</v>
-      </c>
-      <c r="D74" s="16">
-        <v>-124</v>
-      </c>
-      <c r="E74" s="16">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B75" s="16">
-        <v>0</v>
-      </c>
-      <c r="C75" s="16">
-        <v>1</v>
-      </c>
-      <c r="D75" s="16">
-        <v>-49</v>
-      </c>
-      <c r="E75" s="16">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B76" s="16">
-        <v>0</v>
-      </c>
-      <c r="C76" s="16">
-        <v>0</v>
-      </c>
-      <c r="D76" s="16">
-        <v>-14</v>
-      </c>
-      <c r="E76" s="16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B77" s="16">
-        <v>0</v>
-      </c>
-      <c r="C77" s="16">
-        <v>0</v>
-      </c>
-      <c r="D77" s="16">
-        <v>-2</v>
-      </c>
-      <c r="E77" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B78" s="16">
-        <v>0</v>
-      </c>
-      <c r="C78" s="16">
-        <v>0</v>
-      </c>
-      <c r="D78" s="16">
-        <v>0</v>
-      </c>
-      <c r="E78" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B80" s="16">
+      <c r="A80" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="10">
         <v>-8.0599328338930507E-2</v>
       </c>
-      <c r="C80" s="16">
+      <c r="C80" s="10">
         <v>8.2407646602944973E-2</v>
       </c>
       <c r="D80" s="7">
@@ -15169,13 +15420,13 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B81" s="16">
+      <c r="A81" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" s="10">
         <v>-6.1224489795918366E-2</v>
       </c>
-      <c r="C81" s="16">
+      <c r="C81" s="10">
         <v>6.432446396280031E-2</v>
       </c>
       <c r="D81" s="7">
@@ -15186,13 +15437,13 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B82" s="16">
+      <c r="A82" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="10">
         <v>-5.7091190906742445E-2</v>
       </c>
-      <c r="C82" s="16">
+      <c r="C82" s="10">
         <v>5.7607853267889433E-2</v>
       </c>
       <c r="D82" s="7">
@@ -15203,13 +15454,13 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B83" s="16">
+      <c r="A83" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" s="10">
         <v>-4.985791785068458E-2</v>
       </c>
-      <c r="C83" s="16">
+      <c r="C83" s="10">
         <v>5.2182898475846035E-2</v>
       </c>
       <c r="D83" s="7">
@@ -15220,13 +15471,13 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B84" s="16">
+      <c r="A84" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" s="10">
         <v>-4.5207956600361664E-2</v>
       </c>
-      <c r="C84" s="16">
+      <c r="C84" s="10">
         <v>4.3141307155773703E-2</v>
       </c>
       <c r="D84" s="7">
@@ -15237,13 +15488,13 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B85" s="16">
+      <c r="A85" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="10">
         <v>-3.8233014724877293E-2</v>
       </c>
-      <c r="C85" s="16">
+      <c r="C85" s="10">
         <v>3.5391371738568843E-2</v>
       </c>
       <c r="D85" s="7">
@@ -15254,13 +15505,13 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B86" s="16">
+      <c r="A86" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" s="10">
         <v>-3.4874709377421854E-2</v>
       </c>
-      <c r="C86" s="16">
+      <c r="C86" s="10">
         <v>2.7124773960216998E-2</v>
       </c>
       <c r="D86" s="7">
@@ -15271,13 +15522,13 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B87" s="16">
+      <c r="A87" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" s="10">
         <v>-3.461637819684836E-2</v>
       </c>
-      <c r="C87" s="16">
+      <c r="C87" s="10">
         <v>2.6608111599070009E-2</v>
       </c>
       <c r="D87" s="7">
@@ -15288,13 +15539,13 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B88" s="16">
+      <c r="A88" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B88" s="10">
         <v>-2.6349780418496511E-2</v>
       </c>
-      <c r="C88" s="16">
+      <c r="C88" s="10">
         <v>3.0224748127098942E-2</v>
       </c>
       <c r="D88" s="7">
@@ -15305,13 +15556,13 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B89" s="16">
+      <c r="A89" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B89" s="10">
         <v>-1.8858176181865152E-2</v>
       </c>
-      <c r="C89" s="16">
+      <c r="C89" s="10">
         <v>2.5574786876776025E-2</v>
       </c>
       <c r="D89" s="7">
@@ -15322,13 +15573,13 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B90" s="16">
+      <c r="A90" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B90" s="10">
         <v>-1.4724877292689228E-2</v>
       </c>
-      <c r="C90" s="16">
+      <c r="C90" s="10">
         <v>2.0408163265306121E-2</v>
       </c>
       <c r="D90" s="7">
@@ -15339,13 +15590,13 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B91" s="16">
+      <c r="A91" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" s="10">
         <v>-1.1108240764660295E-2</v>
       </c>
-      <c r="C91" s="16">
+      <c r="C91" s="10">
         <v>1.6533195556703694E-2</v>
       </c>
       <c r="D91" s="7">
@@ -15356,13 +15607,13 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B92" s="16">
+      <c r="A92" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" s="10">
         <v>-7.491604236631361E-3</v>
       </c>
-      <c r="C92" s="16">
+      <c r="C92" s="10">
         <v>1.2399896667527771E-2</v>
       </c>
       <c r="D92" s="7">
@@ -15373,13 +15624,13 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B93" s="16">
+      <c r="A93" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" s="10">
         <v>-4.3916300697494186E-3</v>
       </c>
-      <c r="C93" s="16">
+      <c r="C93" s="10">
         <v>8.7832601394988372E-3</v>
       </c>
       <c r="D93" s="7">
@@ -15390,13 +15641,13 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B94" s="16">
+      <c r="A94" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B94" s="10">
         <v>-2.3249806251614568E-3</v>
       </c>
-      <c r="C94" s="16">
+      <c r="C94" s="10">
         <v>5.4249547920433997E-3</v>
       </c>
       <c r="D94" s="7">
@@ -15407,13 +15658,13 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B95" s="16">
+      <c r="A95" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" s="10">
         <v>-7.7499354172048571E-4</v>
       </c>
-      <c r="C95" s="16">
+      <c r="C95" s="10">
         <v>2.5833118057349523E-3</v>
       </c>
       <c r="D95" s="7">
@@ -15424,13 +15675,13 @@
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B96" s="16">
+      <c r="A96" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96" s="10">
         <v>-2.5833118057349522E-4</v>
       </c>
-      <c r="C96" s="16">
+      <c r="C96" s="10">
         <v>1.0333247222939809E-3</v>
       </c>
       <c r="D96" s="7">
@@ -15441,13 +15692,13 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B97" s="16">
+      <c r="A97" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97" s="10">
         <v>0</v>
       </c>
-      <c r="C97" s="16">
+      <c r="C97" s="10">
         <v>2.5833118057349522E-4</v>
       </c>
       <c r="D97" s="7">
@@ -15458,13 +15709,13 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B98" s="16">
+      <c r="A98" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B98" s="10">
         <v>0</v>
       </c>
-      <c r="C98" s="16">
+      <c r="C98" s="10">
         <v>0</v>
       </c>
       <c r="D98" s="7">
@@ -15475,30 +15726,30 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B99" s="16">
+      <c r="A99" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B99" s="10">
         <v>0</v>
       </c>
-      <c r="C99" s="16">
+      <c r="C99" s="10">
         <v>0</v>
       </c>
-      <c r="D99" s="22">
+      <c r="D99" s="15">
         <v>-3.9240307644011927E-5</v>
       </c>
-      <c r="E99" s="23">
+      <c r="E99" s="16">
         <v>7.8480615288023853E-5</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B100" s="16">
+      <c r="A100" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B100" s="10">
         <v>0</v>
       </c>
-      <c r="C100" s="16">
+      <c r="C100" s="10">
         <v>0</v>
       </c>
       <c r="D100" s="7">
@@ -15527,20 +15778,35 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="90" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
+      <c r="B1" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="4"/>
@@ -15586,197 +15852,197 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B4" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>26</v>
+      <c r="F4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B5" s="24">
+      <c r="B5" s="17">
         <v>1950</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="17">
         <v>4084</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="18">
+        <v>49.1</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="19">
+        <v>27.7</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B6" s="17">
+        <v>1955</v>
+      </c>
+      <c r="C6" s="17">
+        <v>4544</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="18">
+        <v>49</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="19">
+        <v>25.9</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B7" s="17">
+        <v>1960</v>
+      </c>
+      <c r="C7" s="17">
+        <v>5099</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="25">
-        <v>49.1</v>
-      </c>
-      <c r="F5" s="26" t="s">
+      <c r="E7" s="18">
+        <v>48.4</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="26">
-        <v>27.7</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B6" s="24">
-        <v>1955</v>
-      </c>
-      <c r="C6" s="24">
-        <v>4544</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="25">
-        <v>49</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="26">
-        <v>25.9</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B7" s="24">
-        <v>1960</v>
-      </c>
-      <c r="C7" s="24">
-        <v>5099</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="25">
-        <v>48.4</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="26">
+      <c r="G7" s="19">
         <v>23.8</v>
       </c>
       <c r="H7" s="7"/>
@@ -15794,22 +16060,22 @@
       <c r="T7" s="7"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B8" s="24">
+      <c r="B8" s="17">
         <v>1965</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="17">
         <v>5769</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="25">
+      <c r="D8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="18">
         <v>48.1</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="26">
+      <c r="F8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="19">
         <v>21.7</v>
       </c>
       <c r="H8" s="7"/>
@@ -15827,22 +16093,22 @@
       <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B9" s="24">
+      <c r="B9" s="17">
         <v>1970</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="17">
         <v>6576</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="25">
+      <c r="D9" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="18">
         <v>47.9</v>
       </c>
-      <c r="F9" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="26">
+      <c r="F9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="19">
         <v>19.7</v>
       </c>
       <c r="H9" s="7"/>
@@ -15860,22 +16126,22 @@
       <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B10" s="24">
+      <c r="B10" s="17">
         <v>1975</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="17">
         <v>7556</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="25">
+      <c r="D10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="18">
         <v>47.2</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="26">
+      <c r="F10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="19">
         <v>18</v>
       </c>
       <c r="H10" s="7"/>
@@ -15893,22 +16159,22 @@
       <c r="T10" s="7"/>
     </row>
     <row r="11" spans="1:20" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B11" s="24">
+      <c r="B11" s="17">
         <v>1980</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="17">
         <v>8717</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="25">
+      <c r="D11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="18">
         <v>45.2</v>
       </c>
-      <c r="F11" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="26">
+      <c r="F11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="19">
         <v>16.3</v>
       </c>
       <c r="H11" s="7"/>
@@ -15926,22 +16192,22 @@
       <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B12" s="24">
+      <c r="B12" s="17">
         <v>1985</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="17">
         <v>10063</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="25">
+      <c r="D12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="18">
         <v>44.4</v>
       </c>
-      <c r="F12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="26">
+      <c r="F12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="19">
         <v>15.9</v>
       </c>
       <c r="H12" s="7"/>
@@ -15959,22 +16225,22 @@
       <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B13" s="24">
+      <c r="B13" s="17">
         <v>1990</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="17">
         <v>11599</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="25">
+      <c r="D13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="18">
         <v>44.1</v>
       </c>
-      <c r="F13" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="26">
+      <c r="F13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="19">
         <v>14.1</v>
       </c>
       <c r="H13" s="7"/>
@@ -15992,22 +16258,22 @@
       <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B14" s="24">
+      <c r="B14" s="17">
         <v>1995</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="17">
         <v>13475</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="25">
+      <c r="D14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="18">
         <v>42.8</v>
       </c>
-      <c r="F14" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="26">
+      <c r="F14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="19">
         <v>11.4</v>
       </c>
       <c r="H14" s="7"/>
@@ -16025,22 +16291,22 @@
       <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B15" s="24">
+      <c r="B15" s="17">
         <v>2000</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="17">
         <v>15767</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="25">
+      <c r="D15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="18">
         <v>39.5</v>
       </c>
-      <c r="F15" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="26">
+      <c r="F15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="19">
         <v>9.1999999999999993</v>
       </c>
       <c r="H15" s="7"/>
@@ -16058,22 +16324,22 @@
       <c r="T15" s="7"/>
     </row>
     <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B16" s="24">
+      <c r="B16" s="17">
         <v>2005</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="17">
         <v>18337</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="25">
+      <c r="D16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="18">
         <v>36.5</v>
       </c>
-      <c r="F16" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="26">
+      <c r="F16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="19">
         <v>7.9</v>
       </c>
       <c r="H16" s="7"/>
@@ -16091,22 +16357,22 @@
       <c r="T16" s="7"/>
     </row>
     <row r="17" spans="2:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B17" s="24">
+      <c r="B17" s="17">
         <v>2010</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="17">
         <v>21152</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="25">
+      <c r="D17" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="18">
         <v>34.1</v>
       </c>
-      <c r="F17" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="26">
+      <c r="F17" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="19">
         <v>6.9</v>
       </c>
       <c r="H17" s="7"/>
@@ -16124,22 +16390,22 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="2:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B18" s="24">
+      <c r="B18" s="17">
         <v>2015</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="17">
         <v>24234</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="25">
+      <c r="D18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="18">
         <v>32.799999999999997</v>
       </c>
-      <c r="F18" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="26">
+      <c r="F18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="19">
         <v>6.1</v>
       </c>
       <c r="H18" s="7"/>
@@ -16157,22 +16423,22 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="2:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B19" s="24">
+      <c r="B19" s="17">
         <v>2020</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="17">
         <v>27691</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="25">
+      <c r="D19" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="18">
         <v>31.4</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="26">
+      <c r="F19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="19">
         <v>5.6</v>
       </c>
       <c r="H19" s="7"/>
@@ -16190,22 +16456,22 @@
       <c r="T19" s="7"/>
     </row>
     <row r="20" spans="2:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B20" s="24">
+      <c r="B20" s="17">
         <v>2025</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="17">
         <v>31510</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="25">
+      <c r="D20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="18">
         <v>29.7</v>
       </c>
-      <c r="F20" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="26">
+      <c r="F20" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="19">
         <v>5.2</v>
       </c>
       <c r="H20" s="7"/>
@@ -16223,22 +16489,22 @@
       <c r="T20" s="7"/>
     </row>
     <row r="21" spans="2:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B21" s="24">
+      <c r="B21" s="17">
         <v>2030</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="17">
         <v>35622</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="25">
+      <c r="D21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="18">
         <v>27.9</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="26">
+      <c r="F21" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="19">
         <v>5</v>
       </c>
       <c r="H21" s="7"/>
@@ -16256,22 +16522,22 @@
       <c r="T21" s="7"/>
     </row>
     <row r="22" spans="2:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B22" s="24">
+      <c r="B22" s="17">
         <v>2035</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="17">
         <v>39949</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="25">
+      <c r="D22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="18">
         <v>26.4</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="26">
+      <c r="F22" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="19">
         <v>4.9000000000000004</v>
       </c>
       <c r="H22" s="7"/>
@@ -16289,22 +16555,22 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="2:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B23" s="24">
+      <c r="B23" s="17">
         <v>2040</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="17">
         <v>44471</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="25">
+      <c r="D23" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="18">
         <v>25</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="26">
+      <c r="F23" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="19">
         <v>4.9000000000000004</v>
       </c>
       <c r="H23" s="7"/>
@@ -16322,22 +16588,22 @@
       <c r="T23" s="7"/>
     </row>
     <row r="24" spans="2:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B24" s="24">
+      <c r="B24" s="17">
         <v>2045</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="17">
         <v>49175</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="25">
+      <c r="D24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="18">
         <v>23.9</v>
       </c>
-      <c r="F24" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="26">
+      <c r="F24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="19">
         <v>4.9000000000000004</v>
       </c>
       <c r="H24" s="7"/>
@@ -16355,16 +16621,16 @@
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="2:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B25" s="24">
+      <c r="B25" s="17">
         <v>2050</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="17">
         <v>54048</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -16381,899 +16647,1121 @@
     </row>
     <row r="26" spans="2:20" ht="15.75" thickTop="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:K29"/>
+  <dimension ref="A2:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11">
-      <c r="A5" s="16" t="s">
+    <row r="2" spans="1:25">
+      <c r="P2" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" thickBot="1">
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+    </row>
+    <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A5" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+    </row>
+    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16" t="s">
+      <c r="B6" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="F6" s="10"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+    </row>
+    <row r="7" spans="1:25" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="B7" s="40">
         <v>-312</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="27">
         <v>319</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="40">
         <f>+B7/3871</f>
         <v>-8.0599328338930507E-2</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="27">
         <f>+C7/3871</f>
         <v>8.2407646602944973E-2</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="16">
-        <v>-3079</v>
-      </c>
-      <c r="I7" s="16">
-        <v>3006</v>
-      </c>
-      <c r="J7" s="7">
-        <f>+H7/50968</f>
-        <v>-6.0410453617956363E-2</v>
-      </c>
-      <c r="K7" s="7">
-        <f>+I7/50968</f>
-        <v>5.8978182388949932E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="16">
+      <c r="F7" s="10"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+    </row>
+    <row r="8" spans="1:25" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="40">
         <v>-237</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="27">
         <v>249</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="40">
         <f t="shared" ref="D8:E27" si="0">+B8/3871</f>
         <v>-6.1224489795918366E-2</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="27">
         <f t="shared" si="0"/>
         <v>6.432446396280031E-2</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16" t="s">
+      <c r="F8" s="10"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+    </row>
+    <row r="9" spans="1:25" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="40">
+        <v>-221</v>
+      </c>
+      <c r="C9" s="27">
+        <v>223</v>
+      </c>
+      <c r="D9" s="40">
+        <f t="shared" si="0"/>
+        <v>-5.7091190906742445E-2</v>
+      </c>
+      <c r="E9" s="27">
+        <f t="shared" si="0"/>
+        <v>5.7607853267889433E-2</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+    </row>
+    <row r="10" spans="1:25" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="16">
+      <c r="B10" s="40">
+        <v>-193</v>
+      </c>
+      <c r="C10" s="27">
+        <v>202</v>
+      </c>
+      <c r="D10" s="40">
+        <f t="shared" si="0"/>
+        <v>-4.985791785068458E-2</v>
+      </c>
+      <c r="E10" s="27">
+        <f t="shared" si="0"/>
+        <v>5.2182898475846035E-2</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+    </row>
+    <row r="11" spans="1:25" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A11" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="40">
+        <v>-175</v>
+      </c>
+      <c r="C11" s="27">
+        <v>167</v>
+      </c>
+      <c r="D11" s="40">
+        <f t="shared" si="0"/>
+        <v>-4.5207956600361664E-2</v>
+      </c>
+      <c r="E11" s="27">
+        <f t="shared" si="0"/>
+        <v>4.3141307155773703E-2</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+    </row>
+    <row r="12" spans="1:25" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A12" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="40">
+        <v>-148</v>
+      </c>
+      <c r="C12" s="27">
+        <v>137</v>
+      </c>
+      <c r="D12" s="40">
+        <f t="shared" si="0"/>
+        <v>-3.8233014724877293E-2</v>
+      </c>
+      <c r="E12" s="27">
+        <f t="shared" si="0"/>
+        <v>3.5391371738568843E-2</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+    </row>
+    <row r="13" spans="1:25" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A13" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="40">
+        <v>-135</v>
+      </c>
+      <c r="C13" s="27">
+        <v>105</v>
+      </c>
+      <c r="D13" s="40">
+        <f t="shared" si="0"/>
+        <v>-3.4874709377421854E-2</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" si="0"/>
+        <v>2.7124773960216998E-2</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+    </row>
+    <row r="14" spans="1:25" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A14" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="40">
+        <v>-134</v>
+      </c>
+      <c r="C14" s="27">
+        <v>103</v>
+      </c>
+      <c r="D14" s="40">
+        <f t="shared" si="0"/>
+        <v>-3.461637819684836E-2</v>
+      </c>
+      <c r="E14" s="27">
+        <f t="shared" si="0"/>
+        <v>2.6608111599070009E-2</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+    </row>
+    <row r="15" spans="1:25" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="40">
+        <v>-102</v>
+      </c>
+      <c r="C15" s="27">
+        <v>117</v>
+      </c>
+      <c r="D15" s="40">
+        <f t="shared" si="0"/>
+        <v>-2.6349780418496511E-2</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" si="0"/>
+        <v>3.0224748127098942E-2</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+    </row>
+    <row r="16" spans="1:25" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="40">
+        <v>-73</v>
+      </c>
+      <c r="C16" s="27">
+        <v>99</v>
+      </c>
+      <c r="D16" s="40">
+        <f t="shared" si="0"/>
+        <v>-1.8858176181865152E-2</v>
+      </c>
+      <c r="E16" s="27">
+        <f t="shared" si="0"/>
+        <v>2.5574786876776025E-2</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="40">
+        <v>-57</v>
+      </c>
+      <c r="C17" s="27">
+        <v>79</v>
+      </c>
+      <c r="D17" s="40">
+        <f t="shared" si="0"/>
+        <v>-1.4724877292689228E-2</v>
+      </c>
+      <c r="E17" s="27">
+        <f t="shared" si="0"/>
+        <v>2.0408163265306121E-2</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A18" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="40">
+        <v>-43</v>
+      </c>
+      <c r="C18" s="27">
+        <v>64</v>
+      </c>
+      <c r="D18" s="40">
+        <f t="shared" si="0"/>
+        <v>-1.1108240764660295E-2</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="0"/>
+        <v>1.6533195556703694E-2</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="40">
+        <v>-29</v>
+      </c>
+      <c r="C19" s="27">
+        <v>48</v>
+      </c>
+      <c r="D19" s="40">
+        <f t="shared" si="0"/>
+        <v>-7.491604236631361E-3</v>
+      </c>
+      <c r="E19" s="27">
+        <f t="shared" si="0"/>
+        <v>1.2399896667527771E-2</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A20" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="40">
+        <v>-17</v>
+      </c>
+      <c r="C20" s="27">
+        <v>34</v>
+      </c>
+      <c r="D20" s="40">
+        <f t="shared" si="0"/>
+        <v>-4.3916300697494186E-3</v>
+      </c>
+      <c r="E20" s="27">
+        <f t="shared" si="0"/>
+        <v>8.7832601394988372E-3</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A21" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="40">
+        <v>-9</v>
+      </c>
+      <c r="C21" s="27">
+        <v>21</v>
+      </c>
+      <c r="D21" s="40">
+        <f t="shared" si="0"/>
+        <v>-2.3249806251614568E-3</v>
+      </c>
+      <c r="E21" s="27">
+        <f t="shared" si="0"/>
+        <v>5.4249547920433997E-3</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A22" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="40">
+        <v>-3</v>
+      </c>
+      <c r="C22" s="27">
+        <v>10</v>
+      </c>
+      <c r="D22" s="40">
+        <f t="shared" si="0"/>
+        <v>-7.7499354172048571E-4</v>
+      </c>
+      <c r="E22" s="27">
+        <f t="shared" si="0"/>
+        <v>2.5833118057349523E-3</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A23" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="40">
+        <v>-1</v>
+      </c>
+      <c r="C23" s="27">
+        <v>4</v>
+      </c>
+      <c r="D23" s="40">
+        <f t="shared" si="0"/>
+        <v>-2.5833118057349522E-4</v>
+      </c>
+      <c r="E23" s="27">
+        <f t="shared" si="0"/>
+        <v>1.0333247222939809E-3</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A24" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="40">
+        <v>0</v>
+      </c>
+      <c r="C24" s="27">
+        <v>1</v>
+      </c>
+      <c r="D24" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="27">
+        <f t="shared" si="0"/>
+        <v>2.5833118057349522E-4</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A25" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="40">
+        <v>0</v>
+      </c>
+      <c r="C25" s="27">
+        <v>0</v>
+      </c>
+      <c r="D25" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A26" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="40">
+        <v>0</v>
+      </c>
+      <c r="C26" s="27">
+        <v>0</v>
+      </c>
+      <c r="D26" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A27" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="40">
+        <v>0</v>
+      </c>
+      <c r="C27" s="27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:12" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A28" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="36">
+        <v>1889</v>
+      </c>
+      <c r="C28" s="36">
+        <f>SUM(C7:C27)</f>
+        <v>1982</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A29" s="11"/>
+      <c r="B29" s="46">
+        <f>SUM(B28:C28)</f>
+        <v>3871</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickTop="1">
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="39" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A39" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="29"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A40" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A41" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="40">
+        <v>-3079</v>
+      </c>
+      <c r="C41" s="27">
+        <v>3006</v>
+      </c>
+      <c r="D41" s="39">
+        <f>+B41/50968</f>
+        <v>-6.0410453617956363E-2</v>
+      </c>
+      <c r="E41" s="26">
+        <f>+C41/50968</f>
+        <v>5.8978182388949932E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A42" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="40">
         <v>-2909</v>
       </c>
-      <c r="I8" s="16">
+      <c r="C42" s="27">
         <v>2848</v>
       </c>
-      <c r="J8" s="7">
-        <f t="shared" ref="J8:K26" si="1">+H8/50968</f>
+      <c r="D42" s="39">
+        <f t="shared" ref="D42:E60" si="1">+B42/50968</f>
         <v>-5.7075027468215349E-2</v>
       </c>
-      <c r="K8" s="7">
+      <c r="E42" s="26">
         <f t="shared" si="1"/>
         <v>5.5878198085072987E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="16">
-        <v>-221</v>
-      </c>
-      <c r="C9" s="16">
-        <v>223</v>
-      </c>
-      <c r="D9" s="16">
-        <f t="shared" si="0"/>
-        <v>-5.7091190906742445E-2</v>
-      </c>
-      <c r="E9" s="16">
-        <f t="shared" si="0"/>
-        <v>5.7607853267889433E-2</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="16">
+    <row r="43" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A43" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="40">
         <v>-2746</v>
       </c>
-      <c r="I9" s="16">
+      <c r="C43" s="27">
         <v>2694</v>
       </c>
-      <c r="J9" s="7">
+      <c r="D43" s="39">
         <f t="shared" si="1"/>
         <v>-5.3876942395228382E-2</v>
       </c>
-      <c r="K9" s="7">
+      <c r="E43" s="26">
         <f t="shared" si="1"/>
         <v>5.285669439648407E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="16">
-        <v>-193</v>
-      </c>
-      <c r="C10" s="16">
-        <v>202</v>
-      </c>
-      <c r="D10" s="16">
-        <f t="shared" si="0"/>
-        <v>-4.985791785068458E-2</v>
-      </c>
-      <c r="E10" s="16">
-        <f t="shared" si="0"/>
-        <v>5.2182898475846035E-2</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="16">
+    <row r="44" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A44" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="40">
         <v>-2583</v>
       </c>
-      <c r="I10" s="16">
+      <c r="C44" s="27">
         <v>2539</v>
       </c>
-      <c r="J10" s="7">
+      <c r="D44" s="39">
         <f t="shared" si="1"/>
         <v>-5.0678857322241408E-2</v>
       </c>
-      <c r="K10" s="7">
+      <c r="E44" s="26">
         <f t="shared" si="1"/>
         <v>4.9815570554073145E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="16">
-        <v>-175</v>
-      </c>
-      <c r="C11" s="16">
-        <v>167</v>
-      </c>
-      <c r="D11" s="16">
-        <f t="shared" si="0"/>
-        <v>-4.5207956600361664E-2</v>
-      </c>
-      <c r="E11" s="16">
-        <f t="shared" si="0"/>
-        <v>4.3141307155773703E-2</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="16">
+    <row r="45" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A45" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="40">
         <v>-2416</v>
       </c>
-      <c r="I11" s="16">
+      <c r="C45" s="27">
         <v>2381</v>
       </c>
-      <c r="J11" s="7">
+      <c r="D45" s="39">
         <f t="shared" si="1"/>
         <v>-4.7402291633966413E-2</v>
       </c>
-      <c r="K11" s="7">
+      <c r="E45" s="26">
         <f t="shared" si="1"/>
         <v>4.67155862501962E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="16">
-        <v>-148</v>
-      </c>
-      <c r="C12" s="16">
-        <v>137</v>
-      </c>
-      <c r="D12" s="16">
-        <f t="shared" si="0"/>
-        <v>-3.8233014724877293E-2</v>
-      </c>
-      <c r="E12" s="16">
-        <f t="shared" si="0"/>
-        <v>3.5391371738568843E-2</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="16">
+    <row r="46" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A46" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="40">
         <v>-2217</v>
       </c>
-      <c r="I12" s="16">
+      <c r="C46" s="27">
         <v>2189</v>
       </c>
-      <c r="J12" s="7">
+      <c r="D46" s="39">
         <f t="shared" si="1"/>
         <v>-4.3497881023387225E-2</v>
       </c>
-      <c r="K12" s="7">
+      <c r="E46" s="26">
         <f t="shared" si="1"/>
         <v>4.2948516716371059E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="16">
-        <v>-135</v>
-      </c>
-      <c r="C13" s="16">
-        <v>105</v>
-      </c>
-      <c r="D13" s="16">
-        <f t="shared" si="0"/>
-        <v>-3.4874709377421854E-2</v>
-      </c>
-      <c r="E13" s="16">
-        <f t="shared" si="0"/>
-        <v>2.7124773960216998E-2</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="16">
+    <row r="47" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A47" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="40">
         <v>-1991</v>
       </c>
-      <c r="I13" s="16">
+      <c r="C47" s="27">
         <v>1970</v>
       </c>
-      <c r="J13" s="7">
+      <c r="D47" s="39">
         <f t="shared" si="1"/>
         <v>-3.9063726259613872E-2</v>
       </c>
-      <c r="K13" s="7">
+      <c r="E47" s="26">
         <f t="shared" si="1"/>
         <v>3.8651703029351753E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="16">
-        <v>-134</v>
-      </c>
-      <c r="C14" s="16">
-        <v>103</v>
-      </c>
-      <c r="D14" s="16">
-        <f t="shared" si="0"/>
-        <v>-3.461637819684836E-2</v>
-      </c>
-      <c r="E14" s="16">
-        <f t="shared" si="0"/>
-        <v>2.6608111599070009E-2</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="16">
+    <row r="48" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A48" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="40">
         <v>-1762</v>
       </c>
-      <c r="I14" s="16">
+      <c r="C48" s="27">
         <v>1748</v>
       </c>
-      <c r="J14" s="7">
+      <c r="D48" s="39">
         <f t="shared" si="1"/>
         <v>-3.4570711034374507E-2</v>
       </c>
-      <c r="K14" s="7">
+      <c r="E48" s="26">
         <f t="shared" si="1"/>
         <v>3.4296028880866428E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="16">
-        <v>-102</v>
-      </c>
-      <c r="C15" s="16">
-        <v>117</v>
-      </c>
-      <c r="D15" s="16">
-        <f t="shared" si="0"/>
-        <v>-2.6349780418496511E-2</v>
-      </c>
-      <c r="E15" s="16">
-        <f t="shared" si="0"/>
-        <v>3.0224748127098942E-2</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="16">
+    <row r="49" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A49" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="40">
         <v>-1581</v>
       </c>
-      <c r="I15" s="16">
+      <c r="C49" s="27">
         <v>1585</v>
       </c>
-      <c r="J15" s="7">
+      <c r="D49" s="39">
         <f t="shared" si="1"/>
         <v>-3.101946319259143E-2</v>
       </c>
-      <c r="K15" s="7">
+      <c r="E49" s="26">
         <f t="shared" si="1"/>
         <v>3.1097943807879454E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="16">
-        <v>-73</v>
-      </c>
-      <c r="C16" s="16">
-        <v>99</v>
-      </c>
-      <c r="D16" s="16">
-        <f t="shared" si="0"/>
-        <v>-1.8858176181865152E-2</v>
-      </c>
-      <c r="E16" s="16">
-        <f t="shared" si="0"/>
-        <v>2.5574786876776025E-2</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="16">
+    <row r="50" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A50" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="40">
         <v>-1397</v>
       </c>
-      <c r="I16" s="16">
+      <c r="C50" s="27">
         <v>1421</v>
       </c>
-      <c r="J16" s="7">
+      <c r="D50" s="39">
         <f t="shared" si="1"/>
         <v>-2.7409354889342333E-2</v>
       </c>
-      <c r="K16" s="7">
+      <c r="E50" s="26">
         <f t="shared" si="1"/>
         <v>2.7880238581070475E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="16">
-        <v>-57</v>
-      </c>
-      <c r="C17" s="16">
-        <v>79</v>
-      </c>
-      <c r="D17" s="16">
-        <f t="shared" si="0"/>
-        <v>-1.4724877292689228E-2</v>
-      </c>
-      <c r="E17" s="16">
-        <f t="shared" si="0"/>
-        <v>2.0408163265306121E-2</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="16">
+    <row r="51" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A51" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="40">
         <v>-1202</v>
       </c>
-      <c r="I17" s="16">
+      <c r="C51" s="27">
         <v>1245</v>
       </c>
-      <c r="J17" s="7">
+      <c r="D51" s="39">
         <f t="shared" si="1"/>
         <v>-2.3583424894051169E-2</v>
       </c>
-      <c r="K17" s="7">
+      <c r="E51" s="26">
         <f t="shared" si="1"/>
         <v>2.4427091508397426E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="16">
-        <v>-43</v>
-      </c>
-      <c r="C18" s="16">
-        <v>64</v>
-      </c>
-      <c r="D18" s="16">
-        <f t="shared" si="0"/>
-        <v>-1.1108240764660295E-2</v>
-      </c>
-      <c r="E18" s="16">
-        <f t="shared" si="0"/>
-        <v>1.6533195556703694E-2</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="16">
+    <row r="52" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A52" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="40">
         <v>-956</v>
       </c>
-      <c r="I18" s="16">
+      <c r="C52" s="27">
         <v>1008</v>
       </c>
-      <c r="J18" s="7">
+      <c r="D52" s="39">
         <f t="shared" si="1"/>
         <v>-1.8756867053837702E-2</v>
       </c>
-      <c r="K18" s="7">
+      <c r="E52" s="26">
         <f t="shared" si="1"/>
         <v>1.9777115052582013E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="16">
-        <v>-29</v>
-      </c>
-      <c r="C19" s="16">
-        <v>48</v>
-      </c>
-      <c r="D19" s="16">
-        <f t="shared" si="0"/>
-        <v>-7.491604236631361E-3</v>
-      </c>
-      <c r="E19" s="16">
-        <f t="shared" si="0"/>
-        <v>1.2399896667527771E-2</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="16">
+    <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A53" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="40">
         <v>-737</v>
       </c>
-      <c r="I19" s="16">
+      <c r="C53" s="27">
         <v>794</v>
       </c>
-      <c r="J19" s="7">
+      <c r="D53" s="39">
         <f t="shared" si="1"/>
         <v>-1.4460053366818396E-2</v>
       </c>
-      <c r="K19" s="7">
+      <c r="E53" s="26">
         <f t="shared" si="1"/>
         <v>1.5578402134672736E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="16">
-        <v>-17</v>
-      </c>
-      <c r="C20" s="16">
-        <v>34</v>
-      </c>
-      <c r="D20" s="16">
-        <f t="shared" si="0"/>
-        <v>-4.3916300697494186E-3</v>
-      </c>
-      <c r="E20" s="16">
-        <f t="shared" si="0"/>
-        <v>8.7832601394988372E-3</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="16">
+    <row r="54" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A54" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="40">
         <v>-558</v>
       </c>
-      <c r="I20" s="16">
+      <c r="C54" s="27">
         <v>619</v>
       </c>
-      <c r="J20" s="7">
+      <c r="D54" s="39">
         <f t="shared" si="1"/>
         <v>-1.0948045832679328E-2</v>
       </c>
-      <c r="K20" s="7">
+      <c r="E54" s="26">
         <f t="shared" si="1"/>
         <v>1.2144875215821692E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="16">
-        <v>-9</v>
-      </c>
-      <c r="C21" s="16">
-        <v>21</v>
-      </c>
-      <c r="D21" s="16">
-        <f t="shared" si="0"/>
-        <v>-2.3249806251614568E-3</v>
-      </c>
-      <c r="E21" s="16">
-        <f t="shared" si="0"/>
-        <v>5.4249547920433997E-3</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="16">
+    <row r="55" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A55" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="40">
         <v>-398</v>
       </c>
-      <c r="I21" s="16">
+      <c r="C55" s="27">
         <v>463</v>
       </c>
-      <c r="J21" s="7">
+      <c r="D55" s="39">
         <f t="shared" si="1"/>
         <v>-7.8088212211583742E-3</v>
       </c>
-      <c r="K21" s="7">
+      <c r="E55" s="26">
         <f t="shared" si="1"/>
         <v>9.0841312195887609E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="16">
-        <v>-3</v>
-      </c>
-      <c r="C22" s="16">
-        <v>10</v>
-      </c>
-      <c r="D22" s="16">
-        <f t="shared" si="0"/>
-        <v>-7.7499354172048571E-4</v>
-      </c>
-      <c r="E22" s="16">
-        <f t="shared" si="0"/>
-        <v>2.5833118057349523E-3</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="16">
+    <row r="56" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A56" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="40">
         <v>-243</v>
       </c>
-      <c r="I22" s="16">
+      <c r="C56" s="27">
         <v>304</v>
       </c>
-      <c r="J22" s="7">
+      <c r="D56" s="39">
         <f t="shared" si="1"/>
         <v>-4.7676973787474496E-3</v>
       </c>
-      <c r="K22" s="7">
+      <c r="E56" s="26">
         <f t="shared" si="1"/>
         <v>5.9645267618898129E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="16">
-        <v>-1</v>
-      </c>
-      <c r="C23" s="16">
-        <v>4</v>
-      </c>
-      <c r="D23" s="16">
-        <f t="shared" si="0"/>
-        <v>-2.5833118057349522E-4</v>
-      </c>
-      <c r="E23" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0333247222939809E-3</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="16">
+    <row r="57" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A57" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="40">
         <v>-124</v>
       </c>
-      <c r="I23" s="16">
+      <c r="C57" s="27">
         <v>168</v>
       </c>
-      <c r="J23" s="7">
+      <c r="D57" s="39">
         <f t="shared" si="1"/>
         <v>-2.4328990739287395E-3</v>
       </c>
-      <c r="K23" s="7">
+      <c r="E57" s="26">
         <f t="shared" si="1"/>
         <v>3.296185842097002E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="16">
-        <v>0</v>
-      </c>
-      <c r="C24" s="16">
-        <v>1</v>
-      </c>
-      <c r="D24" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="16">
-        <f t="shared" si="0"/>
-        <v>2.5833118057349522E-4</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="16">
+    <row r="58" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A58" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="40">
         <v>-49</v>
       </c>
-      <c r="I24" s="16">
+      <c r="C58" s="27">
         <v>74</v>
       </c>
-      <c r="J24" s="7">
+      <c r="D58" s="39">
         <f t="shared" si="1"/>
         <v>-9.6138753727829224E-4</v>
       </c>
-      <c r="K24" s="7">
+      <c r="E58" s="26">
         <f t="shared" si="1"/>
         <v>1.4518913828284413E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="16">
-        <v>0</v>
-      </c>
-      <c r="C25" s="16">
-        <v>0</v>
-      </c>
-      <c r="D25" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="16">
+    <row r="59" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A59" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="40">
         <v>-14</v>
       </c>
-      <c r="I25" s="16">
+      <c r="C59" s="27">
         <v>23</v>
       </c>
-      <c r="J25" s="7">
+      <c r="D59" s="39">
         <f t="shared" si="1"/>
         <v>-2.7468215350808352E-4</v>
       </c>
-      <c r="K25" s="7">
+      <c r="E59" s="26">
         <f t="shared" si="1"/>
         <v>4.512635379061372E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="16">
-        <v>0</v>
-      </c>
-      <c r="C26" s="16">
-        <v>0</v>
-      </c>
-      <c r="D26" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="16">
+    <row r="60" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A60" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="40">
         <v>-2</v>
       </c>
-      <c r="I26" s="16">
+      <c r="C60" s="27">
         <v>4</v>
       </c>
-      <c r="J26" s="22">
+      <c r="D60" s="41">
         <f t="shared" si="1"/>
         <v>-3.9240307644011927E-5</v>
       </c>
-      <c r="K26" s="23">
+      <c r="E60" s="34">
         <f>4/50968</f>
         <v>7.8480615288023853E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="16">
+    <row r="61" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A61" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="40">
         <v>0</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C61" s="27">
         <v>0</v>
       </c>
-      <c r="D27" s="16">
-        <f t="shared" si="0"/>
+      <c r="D61" s="39">
+        <f t="shared" ref="D61:E61" si="2">+B61/50968</f>
         <v>0</v>
       </c>
-      <c r="E27" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="16">
-        <v>0</v>
-      </c>
-      <c r="I27" s="16">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7">
-        <f t="shared" ref="J27:K27" si="2">+H27/50968</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="7">
+      <c r="E61" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30">
-      <c r="A28" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="28">
-        <v>1889</v>
-      </c>
-      <c r="C28" s="28">
-        <f>SUM(C7:C27)</f>
-        <v>1982</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28">
+    <row r="62" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A62" s="21"/>
+      <c r="B62" s="36">
         <v>23885</v>
       </c>
-      <c r="I28" s="28">
+      <c r="C62" s="36">
         <v>27083</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="17"/>
-      <c r="B29" s="30">
-        <f>SUM(B28:C28)</f>
-        <v>3871</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="30">
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A63" s="33"/>
+      <c r="B63" s="37">
         <v>50968</v>
       </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-    </row>
+      <c r="C63" s="37"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="P2:Y16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17285,762 +17773,764 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X38" sqref="X38"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="25">
+        <v>-312</v>
+      </c>
+      <c r="C2" s="27">
+        <v>319</v>
+      </c>
+      <c r="D2" s="23">
+        <v>-3079</v>
+      </c>
+      <c r="E2" s="28">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="38" t="s">
+      <c r="B3" s="25">
+        <v>-237</v>
+      </c>
+      <c r="C3" s="27">
+        <v>249</v>
+      </c>
+      <c r="D3" s="23">
+        <v>-2909</v>
+      </c>
+      <c r="E3" s="28">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="34">
-        <v>-312</v>
-      </c>
-      <c r="C2" s="36">
-        <v>319</v>
-      </c>
-      <c r="D2" s="32">
-        <v>-3079</v>
-      </c>
-      <c r="E2" s="37">
-        <v>3006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="38" t="s">
+      <c r="B4" s="25">
+        <v>-221</v>
+      </c>
+      <c r="C4" s="27">
+        <v>223</v>
+      </c>
+      <c r="D4" s="23">
+        <v>-2746</v>
+      </c>
+      <c r="E4" s="28">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="34">
-        <v>-237</v>
-      </c>
-      <c r="C3" s="36">
-        <v>249</v>
-      </c>
-      <c r="D3" s="32">
-        <v>-2909</v>
-      </c>
-      <c r="E3" s="37">
-        <v>2848</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="38" t="s">
+      <c r="B5" s="25">
+        <v>-193</v>
+      </c>
+      <c r="C5" s="27">
+        <v>202</v>
+      </c>
+      <c r="D5" s="23">
+        <v>-2583</v>
+      </c>
+      <c r="E5" s="28">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="34">
-        <v>-221</v>
-      </c>
-      <c r="C4" s="36">
-        <v>223</v>
-      </c>
-      <c r="D4" s="32">
-        <v>-2746</v>
-      </c>
-      <c r="E4" s="37">
-        <v>2694</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="38" t="s">
+      <c r="B6" s="25">
+        <v>-175</v>
+      </c>
+      <c r="C6" s="27">
+        <v>167</v>
+      </c>
+      <c r="D6" s="23">
+        <v>-2416</v>
+      </c>
+      <c r="E6" s="28">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="34">
-        <v>-193</v>
-      </c>
-      <c r="C5" s="36">
-        <v>202</v>
-      </c>
-      <c r="D5" s="32">
-        <v>-2583</v>
-      </c>
-      <c r="E5" s="37">
-        <v>2539</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="38" t="s">
+      <c r="B7" s="25">
+        <v>-148</v>
+      </c>
+      <c r="C7" s="27">
+        <v>137</v>
+      </c>
+      <c r="D7" s="23">
+        <v>-2217</v>
+      </c>
+      <c r="E7" s="28">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="34">
-        <v>-175</v>
-      </c>
-      <c r="C6" s="36">
-        <v>167</v>
-      </c>
-      <c r="D6" s="32">
-        <v>-2416</v>
-      </c>
-      <c r="E6" s="37">
-        <v>2381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="38" t="s">
+      <c r="B8" s="25">
+        <v>-135</v>
+      </c>
+      <c r="C8" s="27">
+        <v>105</v>
+      </c>
+      <c r="D8" s="23">
+        <v>-1991</v>
+      </c>
+      <c r="E8" s="28">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="34">
-        <v>-148</v>
-      </c>
-      <c r="C7" s="36">
-        <v>137</v>
-      </c>
-      <c r="D7" s="32">
-        <v>-2217</v>
-      </c>
-      <c r="E7" s="37">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="38" t="s">
+      <c r="B9" s="25">
+        <v>-134</v>
+      </c>
+      <c r="C9" s="27">
+        <v>103</v>
+      </c>
+      <c r="D9" s="23">
+        <v>-1762</v>
+      </c>
+      <c r="E9" s="28">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="34">
-        <v>-135</v>
-      </c>
-      <c r="C8" s="36">
-        <v>105</v>
-      </c>
-      <c r="D8" s="32">
-        <v>-1991</v>
-      </c>
-      <c r="E8" s="37">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="38" t="s">
+      <c r="B10" s="25">
+        <v>-102</v>
+      </c>
+      <c r="C10" s="27">
+        <v>117</v>
+      </c>
+      <c r="D10" s="23">
+        <v>-1581</v>
+      </c>
+      <c r="E10" s="28">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A11" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="34">
-        <v>-134</v>
-      </c>
-      <c r="C9" s="36">
-        <v>103</v>
-      </c>
-      <c r="D9" s="32">
-        <v>-1762</v>
-      </c>
-      <c r="E9" s="37">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="38" t="s">
+      <c r="B11" s="25">
+        <v>-73</v>
+      </c>
+      <c r="C11" s="27">
+        <v>99</v>
+      </c>
+      <c r="D11" s="23">
+        <v>-1397</v>
+      </c>
+      <c r="E11" s="28">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A12" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="34">
-        <v>-102</v>
-      </c>
-      <c r="C10" s="36">
-        <v>117</v>
-      </c>
-      <c r="D10" s="32">
-        <v>-1581</v>
-      </c>
-      <c r="E10" s="37">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="38" t="s">
+      <c r="B12" s="25">
+        <v>-57</v>
+      </c>
+      <c r="C12" s="27">
+        <v>79</v>
+      </c>
+      <c r="D12" s="23">
+        <v>-1202</v>
+      </c>
+      <c r="E12" s="28">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A13" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="34">
-        <v>-73</v>
-      </c>
-      <c r="C11" s="36">
-        <v>99</v>
-      </c>
-      <c r="D11" s="32">
-        <v>-1397</v>
-      </c>
-      <c r="E11" s="37">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="38" t="s">
+      <c r="B13" s="25">
+        <v>-43</v>
+      </c>
+      <c r="C13" s="27">
+        <v>64</v>
+      </c>
+      <c r="D13" s="23">
+        <v>-956</v>
+      </c>
+      <c r="E13" s="28">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="34">
-        <v>-57</v>
-      </c>
-      <c r="C12" s="36">
-        <v>79</v>
-      </c>
-      <c r="D12" s="32">
-        <v>-1202</v>
-      </c>
-      <c r="E12" s="37">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="38" t="s">
+      <c r="B14" s="25">
+        <v>-29</v>
+      </c>
+      <c r="C14" s="27">
+        <v>48</v>
+      </c>
+      <c r="D14" s="23">
+        <v>-737</v>
+      </c>
+      <c r="E14" s="28">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="34">
-        <v>-43</v>
-      </c>
-      <c r="C13" s="36">
-        <v>64</v>
-      </c>
-      <c r="D13" s="32">
-        <v>-956</v>
-      </c>
-      <c r="E13" s="37">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="38" t="s">
+      <c r="B15" s="25">
+        <v>-17</v>
+      </c>
+      <c r="C15" s="27">
+        <v>34</v>
+      </c>
+      <c r="D15" s="23">
+        <v>-558</v>
+      </c>
+      <c r="E15" s="28">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="34">
-        <v>-29</v>
-      </c>
-      <c r="C14" s="36">
+      <c r="B16" s="25">
+        <v>-9</v>
+      </c>
+      <c r="C16" s="27">
+        <v>21</v>
+      </c>
+      <c r="D16" s="23">
+        <v>-398</v>
+      </c>
+      <c r="E16" s="28">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="25">
+        <v>-3</v>
+      </c>
+      <c r="C17" s="27">
+        <v>10</v>
+      </c>
+      <c r="D17" s="23">
+        <v>-243</v>
+      </c>
+      <c r="E17" s="28">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A18" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="25">
+        <v>-1</v>
+      </c>
+      <c r="C18" s="27">
+        <v>4</v>
+      </c>
+      <c r="D18" s="23">
+        <v>-124</v>
+      </c>
+      <c r="E18" s="28">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="25">
+        <v>0</v>
+      </c>
+      <c r="C19" s="27">
+        <v>1</v>
+      </c>
+      <c r="D19" s="23">
+        <v>-49</v>
+      </c>
+      <c r="E19" s="28">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A20" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="25">
+        <v>0</v>
+      </c>
+      <c r="C20" s="27">
+        <v>0</v>
+      </c>
+      <c r="D20" s="23">
+        <v>-14</v>
+      </c>
+      <c r="E20" s="28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A21" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="25">
+        <v>0</v>
+      </c>
+      <c r="C21" s="27">
+        <v>0</v>
+      </c>
+      <c r="D21" s="23">
+        <v>-2</v>
+      </c>
+      <c r="E21" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A22" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="32">
-        <v>-737</v>
-      </c>
-      <c r="E14" s="37">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="34">
-        <v>-17</v>
-      </c>
-      <c r="C15" s="36">
-        <v>34</v>
-      </c>
-      <c r="D15" s="32">
-        <v>-558</v>
-      </c>
-      <c r="E15" s="37">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="34">
-        <v>-9</v>
-      </c>
-      <c r="C16" s="36">
-        <v>21</v>
-      </c>
-      <c r="D16" s="32">
-        <v>-398</v>
-      </c>
-      <c r="E16" s="37">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="34">
-        <v>-3</v>
-      </c>
-      <c r="C17" s="36">
-        <v>10</v>
-      </c>
-      <c r="D17" s="32">
-        <v>-243</v>
-      </c>
-      <c r="E17" s="37">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="34">
-        <v>-1</v>
-      </c>
-      <c r="C18" s="36">
-        <v>4</v>
-      </c>
-      <c r="D18" s="32">
-        <v>-124</v>
-      </c>
-      <c r="E18" s="37">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="34">
+      <c r="B22" s="25">
         <v>0</v>
       </c>
-      <c r="C19" s="36">
-        <v>1</v>
-      </c>
-      <c r="D19" s="32">
-        <v>-49</v>
-      </c>
-      <c r="E19" s="37">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="34">
+      <c r="C22" s="27">
         <v>0</v>
       </c>
-      <c r="C20" s="36">
+      <c r="D22" s="23">
         <v>0</v>
       </c>
-      <c r="D20" s="32">
-        <v>-14</v>
-      </c>
-      <c r="E20" s="37">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="34">
-        <v>0</v>
-      </c>
-      <c r="C21" s="36">
-        <v>0</v>
-      </c>
-      <c r="D21" s="32">
-        <v>-2</v>
-      </c>
-      <c r="E21" s="37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="34">
-        <v>0</v>
-      </c>
-      <c r="C22" s="36">
-        <v>0</v>
-      </c>
-      <c r="D22" s="32">
-        <v>0</v>
-      </c>
-      <c r="E22" s="37">
+      <c r="E22" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickTop="1"/>
     <row r="27" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A29" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="25">
+        <v>-8.0599328338930507E-2</v>
+      </c>
+      <c r="C29" s="27">
+        <v>8.2407646602944973E-2</v>
+      </c>
+      <c r="D29" s="22">
+        <v>-6.0410453617956363E-2</v>
+      </c>
+      <c r="E29" s="31">
+        <v>5.8978182388949932E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A30" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="38" t="s">
+      <c r="B30" s="25">
+        <v>-6.1224489795918366E-2</v>
+      </c>
+      <c r="C30" s="27">
+        <v>6.432446396280031E-2</v>
+      </c>
+      <c r="D30" s="22">
+        <v>-5.7075027468215349E-2</v>
+      </c>
+      <c r="E30" s="31">
+        <v>5.5878198085072987E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A31" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="34">
-        <v>-8.0599328338930507E-2</v>
-      </c>
-      <c r="C29" s="36">
-        <v>8.2407646602944973E-2</v>
-      </c>
-      <c r="D29" s="31">
-        <v>-6.0410453617956363E-2</v>
-      </c>
-      <c r="E29" s="40">
-        <v>5.8978182388949932E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="38" t="s">
+      <c r="B31" s="25">
+        <v>-5.7091190906742445E-2</v>
+      </c>
+      <c r="C31" s="27">
+        <v>5.7607853267889433E-2</v>
+      </c>
+      <c r="D31" s="22">
+        <v>-5.3876942395228382E-2</v>
+      </c>
+      <c r="E31" s="31">
+        <v>5.285669439648407E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A32" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="34">
-        <v>-6.1224489795918366E-2</v>
-      </c>
-      <c r="C30" s="36">
-        <v>6.432446396280031E-2</v>
-      </c>
-      <c r="D30" s="31">
-        <v>-5.7075027468215349E-2</v>
-      </c>
-      <c r="E30" s="40">
-        <v>5.5878198085072987E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="38" t="s">
+      <c r="B32" s="25">
+        <v>-4.985791785068458E-2</v>
+      </c>
+      <c r="C32" s="27">
+        <v>5.2182898475846035E-2</v>
+      </c>
+      <c r="D32" s="22">
+        <v>-5.0678857322241408E-2</v>
+      </c>
+      <c r="E32" s="31">
+        <v>4.9815570554073145E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A33" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="34">
-        <v>-5.7091190906742445E-2</v>
-      </c>
-      <c r="C31" s="36">
-        <v>5.7607853267889433E-2</v>
-      </c>
-      <c r="D31" s="31">
-        <v>-5.3876942395228382E-2</v>
-      </c>
-      <c r="E31" s="40">
-        <v>5.285669439648407E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="38" t="s">
+      <c r="B33" s="25">
+        <v>-4.5207956600361664E-2</v>
+      </c>
+      <c r="C33" s="27">
+        <v>4.3141307155773703E-2</v>
+      </c>
+      <c r="D33" s="22">
+        <v>-4.7402291633966413E-2</v>
+      </c>
+      <c r="E33" s="31">
+        <v>4.67155862501962E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A34" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="34">
-        <v>-4.985791785068458E-2</v>
-      </c>
-      <c r="C32" s="36">
-        <v>5.2182898475846035E-2</v>
-      </c>
-      <c r="D32" s="31">
-        <v>-5.0678857322241408E-2</v>
-      </c>
-      <c r="E32" s="40">
-        <v>4.9815570554073145E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="38" t="s">
+      <c r="B34" s="25">
+        <v>-3.8233014724877293E-2</v>
+      </c>
+      <c r="C34" s="27">
+        <v>3.5391371738568843E-2</v>
+      </c>
+      <c r="D34" s="22">
+        <v>-4.3497881023387225E-2</v>
+      </c>
+      <c r="E34" s="31">
+        <v>4.2948516716371059E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A35" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="34">
-        <v>-4.5207956600361664E-2</v>
-      </c>
-      <c r="C33" s="36">
-        <v>4.3141307155773703E-2</v>
-      </c>
-      <c r="D33" s="31">
-        <v>-4.7402291633966413E-2</v>
-      </c>
-      <c r="E33" s="40">
-        <v>4.67155862501962E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="38" t="s">
+      <c r="B35" s="25">
+        <v>-3.4874709377421854E-2</v>
+      </c>
+      <c r="C35" s="27">
+        <v>2.7124773960216998E-2</v>
+      </c>
+      <c r="D35" s="22">
+        <v>-3.9063726259613872E-2</v>
+      </c>
+      <c r="E35" s="31">
+        <v>3.8651703029351753E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A36" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="34">
-        <v>-3.8233014724877293E-2</v>
-      </c>
-      <c r="C34" s="36">
-        <v>3.5391371738568843E-2</v>
-      </c>
-      <c r="D34" s="31">
-        <v>-4.3497881023387225E-2</v>
-      </c>
-      <c r="E34" s="40">
-        <v>4.2948516716371059E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="38" t="s">
+      <c r="B36" s="25">
+        <v>-3.461637819684836E-2</v>
+      </c>
+      <c r="C36" s="27">
+        <v>2.6608111599070009E-2</v>
+      </c>
+      <c r="D36" s="22">
+        <v>-3.4570711034374507E-2</v>
+      </c>
+      <c r="E36" s="31">
+        <v>3.4296028880866428E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A37" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="34">
-        <v>-3.4874709377421854E-2</v>
-      </c>
-      <c r="C35" s="36">
-        <v>2.7124773960216998E-2</v>
-      </c>
-      <c r="D35" s="31">
-        <v>-3.9063726259613872E-2</v>
-      </c>
-      <c r="E35" s="40">
-        <v>3.8651703029351753E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="38" t="s">
+      <c r="B37" s="25">
+        <v>-2.6349780418496511E-2</v>
+      </c>
+      <c r="C37" s="27">
+        <v>3.0224748127098942E-2</v>
+      </c>
+      <c r="D37" s="22">
+        <v>-3.101946319259143E-2</v>
+      </c>
+      <c r="E37" s="31">
+        <v>3.1097943807879454E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A38" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="34">
-        <v>-3.461637819684836E-2</v>
-      </c>
-      <c r="C36" s="36">
-        <v>2.6608111599070009E-2</v>
-      </c>
-      <c r="D36" s="31">
-        <v>-3.4570711034374507E-2</v>
-      </c>
-      <c r="E36" s="40">
-        <v>3.4296028880866428E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="38" t="s">
+      <c r="B38" s="25">
+        <v>-1.8858176181865152E-2</v>
+      </c>
+      <c r="C38" s="27">
+        <v>2.5574786876776025E-2</v>
+      </c>
+      <c r="D38" s="22">
+        <v>-2.7409354889342333E-2</v>
+      </c>
+      <c r="E38" s="31">
+        <v>2.7880238581070475E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A39" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="34">
-        <v>-2.6349780418496511E-2</v>
-      </c>
-      <c r="C37" s="36">
-        <v>3.0224748127098942E-2</v>
-      </c>
-      <c r="D37" s="31">
-        <v>-3.101946319259143E-2</v>
-      </c>
-      <c r="E37" s="40">
-        <v>3.1097943807879454E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="38" t="s">
+      <c r="B39" s="25">
+        <v>-1.4724877292689228E-2</v>
+      </c>
+      <c r="C39" s="27">
+        <v>2.0408163265306121E-2</v>
+      </c>
+      <c r="D39" s="22">
+        <v>-2.3583424894051169E-2</v>
+      </c>
+      <c r="E39" s="31">
+        <v>2.4427091508397426E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A40" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="34">
-        <v>-1.8858176181865152E-2</v>
-      </c>
-      <c r="C38" s="36">
-        <v>2.5574786876776025E-2</v>
-      </c>
-      <c r="D38" s="31">
-        <v>-2.7409354889342333E-2</v>
-      </c>
-      <c r="E38" s="40">
-        <v>2.7880238581070475E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="38" t="s">
+      <c r="B40" s="25">
+        <v>-1.1108240764660295E-2</v>
+      </c>
+      <c r="C40" s="27">
+        <v>1.6533195556703694E-2</v>
+      </c>
+      <c r="D40" s="22">
+        <v>-1.8756867053837702E-2</v>
+      </c>
+      <c r="E40" s="31">
+        <v>1.9777115052582013E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A41" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="34">
-        <v>-1.4724877292689228E-2</v>
-      </c>
-      <c r="C39" s="36">
-        <v>2.0408163265306121E-2</v>
-      </c>
-      <c r="D39" s="31">
-        <v>-2.3583424894051169E-2</v>
-      </c>
-      <c r="E39" s="40">
-        <v>2.4427091508397426E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="38" t="s">
+      <c r="B41" s="25">
+        <v>-7.491604236631361E-3</v>
+      </c>
+      <c r="C41" s="27">
+        <v>1.2399896667527771E-2</v>
+      </c>
+      <c r="D41" s="22">
+        <v>-1.4460053366818396E-2</v>
+      </c>
+      <c r="E41" s="31">
+        <v>1.5578402134672736E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A42" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="34">
-        <v>-1.1108240764660295E-2</v>
-      </c>
-      <c r="C40" s="36">
-        <v>1.6533195556703694E-2</v>
-      </c>
-      <c r="D40" s="31">
-        <v>-1.8756867053837702E-2</v>
-      </c>
-      <c r="E40" s="40">
-        <v>1.9777115052582013E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="38" t="s">
+      <c r="B42" s="25">
+        <v>-4.3916300697494186E-3</v>
+      </c>
+      <c r="C42" s="27">
+        <v>8.7832601394988372E-3</v>
+      </c>
+      <c r="D42" s="22">
+        <v>-1.0948045832679328E-2</v>
+      </c>
+      <c r="E42" s="31">
+        <v>1.2144875215821692E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A43" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="34">
-        <v>-7.491604236631361E-3</v>
-      </c>
-      <c r="C41" s="36">
-        <v>1.2399896667527771E-2</v>
-      </c>
-      <c r="D41" s="31">
-        <v>-1.4460053366818396E-2</v>
-      </c>
-      <c r="E41" s="40">
-        <v>1.5578402134672736E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="38" t="s">
+      <c r="B43" s="25">
+        <v>-2.3249806251614568E-3</v>
+      </c>
+      <c r="C43" s="27">
+        <v>5.4249547920433997E-3</v>
+      </c>
+      <c r="D43" s="22">
+        <v>-7.8088212211583742E-3</v>
+      </c>
+      <c r="E43" s="31">
+        <v>9.0841312195887609E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A44" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="34">
-        <v>-4.3916300697494186E-3</v>
-      </c>
-      <c r="C42" s="36">
-        <v>8.7832601394988372E-3</v>
-      </c>
-      <c r="D42" s="31">
-        <v>-1.0948045832679328E-2</v>
-      </c>
-      <c r="E42" s="40">
-        <v>1.2144875215821692E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="38" t="s">
+      <c r="B44" s="25">
+        <v>-7.7499354172048571E-4</v>
+      </c>
+      <c r="C44" s="27">
+        <v>2.5833118057349523E-3</v>
+      </c>
+      <c r="D44" s="22">
+        <v>-4.7676973787474496E-3</v>
+      </c>
+      <c r="E44" s="31">
+        <v>5.9645267618898129E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A45" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="34">
-        <v>-2.3249806251614568E-3</v>
-      </c>
-      <c r="C43" s="36">
-        <v>5.4249547920433997E-3</v>
-      </c>
-      <c r="D43" s="31">
-        <v>-7.8088212211583742E-3</v>
-      </c>
-      <c r="E43" s="40">
-        <v>9.0841312195887609E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="38" t="s">
+      <c r="B45" s="25">
+        <v>-2.5833118057349522E-4</v>
+      </c>
+      <c r="C45" s="27">
+        <v>1.0333247222939809E-3</v>
+      </c>
+      <c r="D45" s="22">
+        <v>-2.4328990739287395E-3</v>
+      </c>
+      <c r="E45" s="31">
+        <v>3.296185842097002E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A46" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="34">
-        <v>-7.7499354172048571E-4</v>
-      </c>
-      <c r="C44" s="36">
-        <v>2.5833118057349523E-3</v>
-      </c>
-      <c r="D44" s="31">
-        <v>-4.7676973787474496E-3</v>
-      </c>
-      <c r="E44" s="40">
-        <v>5.9645267618898129E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="38" t="s">
+      <c r="B46" s="25">
+        <v>0</v>
+      </c>
+      <c r="C46" s="27">
+        <v>2.5833118057349522E-4</v>
+      </c>
+      <c r="D46" s="22">
+        <v>-9.6138753727829224E-4</v>
+      </c>
+      <c r="E46" s="31">
+        <v>1.4518913828284413E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A47" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="34">
-        <v>-2.5833118057349522E-4</v>
-      </c>
-      <c r="C45" s="36">
-        <v>1.0333247222939809E-3</v>
-      </c>
-      <c r="D45" s="31">
-        <v>-2.4328990739287395E-3</v>
-      </c>
-      <c r="E45" s="40">
-        <v>3.296185842097002E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="38" t="s">
+      <c r="B47" s="25">
+        <v>0</v>
+      </c>
+      <c r="C47" s="27">
+        <v>0</v>
+      </c>
+      <c r="D47" s="22">
+        <v>-2.7468215350808352E-4</v>
+      </c>
+      <c r="E47" s="31">
+        <v>4.512635379061372E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A48" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="34">
+      <c r="B48" s="25">
         <v>0</v>
       </c>
-      <c r="C46" s="36">
-        <v>2.5833118057349522E-4</v>
-      </c>
-      <c r="D46" s="31">
-        <v>-9.6138753727829224E-4</v>
-      </c>
-      <c r="E46" s="40">
-        <v>1.4518913828284413E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="38" t="s">
+      <c r="C48" s="27">
+        <v>0</v>
+      </c>
+      <c r="D48" s="30">
+        <v>-3.9240307644011927E-5</v>
+      </c>
+      <c r="E48" s="32">
+        <v>7.8480615288023853E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A49" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="34">
+      <c r="B49" s="25">
         <v>0</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C49" s="27">
         <v>0</v>
       </c>
-      <c r="D47" s="31">
-        <v>-2.7468215350808352E-4</v>
-      </c>
-      <c r="E47" s="40">
-        <v>4.512635379061372E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="34">
+      <c r="D49" s="22">
         <v>0</v>
       </c>
-      <c r="C48" s="36">
-        <v>0</v>
-      </c>
-      <c r="D48" s="39">
-        <v>-3.9240307644011927E-5</v>
-      </c>
-      <c r="E48" s="41">
-        <v>7.8480615288023853E-5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="34">
-        <v>0</v>
-      </c>
-      <c r="C49" s="36">
-        <v>0</v>
-      </c>
-      <c r="D49" s="31">
-        <v>0</v>
-      </c>
-      <c r="E49" s="40">
+      <c r="E49" s="31">
         <v>0</v>
       </c>
     </row>
